--- a/biology/Zoologie/Heterometrus_thorellii/Heterometrus_thorellii.xlsx
+++ b/biology/Zoologie/Heterometrus_thorellii/Heterometrus_thorellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterometrus thorellii est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Birmanie[1]. Elle se rencontre dans les régions de Bago, Magway, Mandalay, Sagaing et Yangon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Birmanie. Elle se rencontre dans les régions de Bago, Magway, Mandalay, Sagaing et Yangon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterometrus thorellii mesure de 90 à 120 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterometrus thorellii mesure de 90 à 120 mm
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palamnaeus thorellii par Pocock en 1892. Elle est placée en synonymie avec Heterometrus longimanus par Pocock en 1900[3] puis avec Heterometrus bengalensis par Couzijn en 1981[4]. Elle est relevée de synonymie par Kovařík en 2004[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palamnaeus thorellii par Pocock en 1892. Elle est placée en synonymie avec Heterometrus longimanus par Pocock en 1900 puis avec Heterometrus bengalensis par Couzijn en 1981. Elle est relevée de synonymie par Kovařík en 2004.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tord Tamerlan Teodor Thorell[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tord Tamerlan Teodor Thorell.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1892 : « Descriptions of two new genera of scorpions, with notes upon some species of Palamnaeus. » Annals and Magazine of Natural History, sér. 6, vol. 9, p. 38–49 (texte intégral).</t>
         </is>
